--- a/biology/Histoire de la zoologie et de la botanique/Samuel_Stehman_Haldeman/Samuel_Stehman_Haldeman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Samuel_Stehman_Haldeman/Samuel_Stehman_Haldeman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Stehman Haldeman est un naturaliste et un linguiste américain, né le 12 août 1812 à Locust Grove en Pennsylvanie et mort le 10 septembre 1880 à Chickies en Pennsylvanie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études au Dickinson College et est géologue de l’État du New Jersey de 1837 à 1842. En 1851, il devient professeur de sciences naturelles à l'université de Pennsylvanie. En 1855, il part au Delaware College, où il obtient un poste identique, mais en 1869, il retourne à l'université de Pennsylvanie comme professeur de linguiste comparée où il reste jusqu'à sa mort.
 Il est l’auteur de 200 publications sur la philologie, les échecs et l’histoire naturelle.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Freshwater Univalve Molliesca of the United States (1840).
 Zoological Contributions (1842-1843).
@@ -579,7 +595,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Robert Tucker Abbott (1974). American Malacologists. A National Register of Professional and Amateur Malacologists and Private Shell Collectors and Biographies of Early American Mollusk Workers Born Between 1618 and 1900, American Malacologists (Falls Church, Virginie) : iv + 494 p.  (ISBN 0-913792-02-0)</t>
         </is>
